--- a/likes por mes.xlsx
+++ b/likes por mes.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,7 +381,7 @@
         <v>44501</v>
       </c>
       <c r="B2">
-        <v>1417</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +389,7 @@
         <v>44531</v>
       </c>
       <c r="B3">
-        <v>1541</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>1669</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="5">
@@ -405,7 +405,7 @@
         <v>44593</v>
       </c>
       <c r="B5">
-        <v>1267</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="6">
@@ -413,7 +413,7 @@
         <v>44621</v>
       </c>
       <c r="B6">
-        <v>1494</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="7">
@@ -421,7 +421,7 @@
         <v>44652</v>
       </c>
       <c r="B7">
-        <v>1632</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="8">
@@ -429,7 +429,7 @@
         <v>44682</v>
       </c>
       <c r="B8">
-        <v>1428</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="9">
@@ -437,7 +437,7 @@
         <v>44713</v>
       </c>
       <c r="B9">
-        <v>1393</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="10">
@@ -445,7 +445,7 @@
         <v>44743</v>
       </c>
       <c r="B10">
-        <v>1219</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="11">
@@ -453,7 +453,7 @@
         <v>44774</v>
       </c>
       <c r="B11">
-        <v>1356</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="12">
@@ -461,7 +461,7 @@
         <v>44805</v>
       </c>
       <c r="B12">
-        <v>1559</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="13">
@@ -469,7 +469,15 @@
         <v>44835</v>
       </c>
       <c r="B13">
-        <v>1595</v>
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>44866</v>
+      </c>
+      <c r="B14">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
